--- a/dist/GUI/CPR_100221_20210210-114741/Ratios.xlsx
+++ b/dist/GUI/CPR_100221_20210210-114741/Ratios.xlsx
@@ -411,7 +411,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -429,7 +429,7 @@
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,10 +497,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>0.1143667343042054</v>
+        <v>-1.371845040908592</v>
       </c>
       <c r="B2">
-        <v>0.001672089322806292</v>
+        <v>0.001669604528143381</v>
       </c>
       <c r="C2">
         <v>0.009947044687815326</v>
@@ -539,10 +539,10 @@
         <v>0.1671898113278987</v>
       </c>
       <c r="O2">
-        <v>1.324584322994288</v>
+        <v>1.324582333196705</v>
       </c>
       <c r="P2">
-        <v>0.3409000047751028</v>
+        <v>0.3409005173764483</v>
       </c>
       <c r="Q2">
         <v>0.1838227800153526</v>
@@ -551,18 +551,18 @@
         <v>0.4667233759767803</v>
       </c>
       <c r="S2">
-        <v>0.2425652817721227</v>
+        <v>0.2425649162228197</v>
       </c>
       <c r="T2">
-        <v>0.32695342528132</v>
+        <v>0.3269535019506545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>146.0150489192544</v>
+        <v>144.3120226285348</v>
       </c>
       <c r="B3">
-        <v>0.0005483835799002634</v>
+        <v>0.0005475686589663281</v>
       </c>
       <c r="C3">
         <v>0.009972045011614569</v>
@@ -601,10 +601,10 @@
         <v>0.0478513419537915</v>
       </c>
       <c r="O3">
-        <v>0.0032773447034385</v>
+        <v>0.003275356462361479</v>
       </c>
       <c r="P3">
-        <v>2.118638886166868</v>
+        <v>2.119924914268915</v>
       </c>
       <c r="Q3">
         <v>0.09736895715369355</v>
@@ -613,18 +613,18 @@
         <v>0.198702951628399</v>
       </c>
       <c r="S3">
-        <v>0.0003205476770501719</v>
+        <v>0.0003203543385384721</v>
       </c>
       <c r="T3">
-        <v>2.018904390208913</v>
+        <v>2.020137790100577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>0.07524374222045438</v>
+        <v>-1.410909894590029</v>
       </c>
       <c r="B4">
-        <v>0.001847658475256469</v>
+        <v>0.001844912777490458</v>
       </c>
       <c r="C4">
         <v>0.01002745745125579</v>
@@ -663,10 +663,10 @@
         <v>0.18475194609784</v>
       </c>
       <c r="O4">
-        <v>1.323333400550307</v>
+        <v>1.32333141153102</v>
       </c>
       <c r="P4">
-        <v>0.2852824024570378</v>
+        <v>0.2852828322387429</v>
       </c>
       <c r="Q4">
         <v>0.1830110572045474</v>
@@ -675,18 +675,18 @@
         <v>0.413548279079566</v>
       </c>
       <c r="S4">
-        <v>0.2414264833758018</v>
+        <v>0.2414261194212968</v>
       </c>
       <c r="T4">
-        <v>0.3636863292778187</v>
+        <v>0.3636864051450315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>145.9566434423649</v>
+        <v>144.2537039446266</v>
       </c>
       <c r="B5">
-        <v>0.0004972629048417086</v>
+        <v>0.0004965239513688518</v>
       </c>
       <c r="C5">
         <v>0.01000467291249881</v>
@@ -725,10 +725,10 @@
         <v>0.04339282011123644</v>
       </c>
       <c r="O5">
-        <v>0.002813531792510626</v>
+        <v>0.002811543931097559</v>
       </c>
       <c r="P5">
-        <v>1.997515402124657</v>
+        <v>1.998927788018716</v>
       </c>
       <c r="Q5">
         <v>0.1814969380218558</v>
@@ -737,18 +737,18 @@
         <v>0.3098441651051433</v>
       </c>
       <c r="S5">
-        <v>0.0005110649611273431</v>
+        <v>0.0005106998173672897</v>
       </c>
       <c r="T5">
-        <v>2.008083298503632</v>
+        <v>2.009498076031131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>2.514640426850789</v>
+        <v>1.024861744547856</v>
       </c>
       <c r="B6">
-        <v>0.001802158364614082</v>
+        <v>0.001799480281915367</v>
       </c>
       <c r="C6">
         <v>0.009819163185528878</v>
@@ -787,10 +787,10 @@
         <v>0.1797637951548278</v>
       </c>
       <c r="O6">
-        <v>1.322200220349557</v>
+        <v>1.32219823094449</v>
       </c>
       <c r="P6">
-        <v>0.2209736404250356</v>
+        <v>0.2209739728222805</v>
       </c>
       <c r="Q6">
         <v>0.1811370290506207</v>
@@ -799,18 +799,18 @@
         <v>0.3803973243849685</v>
       </c>
       <c r="S6">
-        <v>0.239667028579765</v>
+        <v>0.2396666663667818</v>
       </c>
       <c r="T6">
-        <v>0.3656704039744018</v>
+        <v>0.3656704898636055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>146.3587040911574</v>
+        <v>144.6551671144802</v>
       </c>
       <c r="B7">
-        <v>0.0005473663981895642</v>
+        <v>0.0005465529888301912</v>
       </c>
       <c r="C7">
         <v>0.009974392941727757</v>
@@ -849,10 +849,10 @@
         <v>0.04774826555039949</v>
       </c>
       <c r="O7">
-        <v>0.003654896968490784</v>
+        <v>0.003652908602329808</v>
       </c>
       <c r="P7">
-        <v>1.936336394570503</v>
+        <v>1.937390319586194</v>
       </c>
       <c r="Q7">
         <v>0.1804577480367137</v>
@@ -861,18 +861,18 @@
         <v>0.3852339957965794</v>
       </c>
       <c r="S7">
-        <v>0.0006636456736421185</v>
+        <v>0.0006632840911626782</v>
       </c>
       <c r="T7">
-        <v>1.939710498005037</v>
+        <v>1.940759177824897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>0.6979624794027917</v>
+        <v>-0.7891165434938952</v>
       </c>
       <c r="B8">
-        <v>0.001333396989833812</v>
+        <v>0.001331415506142307</v>
       </c>
       <c r="C8">
         <v>0.009907802217358631</v>
@@ -911,10 +911,10 @@
         <v>0.133246697787821</v>
       </c>
       <c r="O8">
-        <v>1.319624247369094</v>
+        <v>1.319622257679337</v>
       </c>
       <c r="P8">
-        <v>0.2325179417830537</v>
+        <v>0.2325182917524557</v>
       </c>
       <c r="Q8">
         <v>0.1803459092003151</v>
@@ -923,18 +923,18 @@
         <v>0.4297868006133961</v>
       </c>
       <c r="S8">
-        <v>0.2382822709433621</v>
+        <v>0.2382819122323587</v>
       </c>
       <c r="T8">
-        <v>0.3670470559826737</v>
+        <v>0.3670471312898169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>145.9930428814786</v>
+        <v>144.2900492926518</v>
       </c>
       <c r="B9">
-        <v>0.0003793789222423742</v>
+        <v>0.0003788151492977407</v>
       </c>
       <c r="C9">
         <v>0.009984642247515869</v>
@@ -973,10 +973,10 @@
         <v>0.03310481896892375</v>
       </c>
       <c r="O9">
-        <v>0.003181029449791472</v>
+        <v>0.003179041188988946</v>
       </c>
       <c r="P9">
-        <v>2.136376476475425</v>
+        <v>2.1377126504212</v>
       </c>
       <c r="Q9">
         <v>0.1138978916414677</v>
@@ -985,18 +985,18 @@
         <v>0.2496545418348033</v>
       </c>
       <c r="S9">
-        <v>0.0003632314580999754</v>
+        <v>0.0003630052528144143</v>
       </c>
       <c r="T9">
-        <v>2.136083829830561</v>
+        <v>2.137402394568339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>0.7046473595699876</v>
+        <v>-0.7824415973383125</v>
       </c>
       <c r="B10">
-        <v>0.001929450337261307</v>
+        <v>0.001926583093367701</v>
       </c>
       <c r="C10">
         <v>0.009841760080815906</v>
@@ -1035,10 +1035,10 @@
         <v>0.1928091712527066</v>
       </c>
       <c r="O10">
-        <v>1.317301608640938</v>
+        <v>1.317299619129553</v>
       </c>
       <c r="P10">
-        <v>0.2453966400949428</v>
+        <v>0.2453970110927369</v>
       </c>
       <c r="Q10">
         <v>0.1802190851860907</v>
@@ -1047,18 +1047,18 @@
         <v>0.4150400840242146</v>
       </c>
       <c r="S10">
-        <v>0.2367855739726799</v>
+        <v>0.2367852110607417</v>
       </c>
       <c r="T10">
-        <v>0.4260307905930146</v>
+        <v>0.4260308980406651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>146.9604677031626</v>
+        <v>145.2560364805913</v>
       </c>
       <c r="B11">
-        <v>0.0004881335238397607</v>
+        <v>0.0004874081370088768</v>
       </c>
       <c r="C11">
         <v>0.01001695123005385</v>
@@ -1097,10 +1097,10 @@
         <v>0.04255887954161741</v>
       </c>
       <c r="O11">
-        <v>0.003398957315546118</v>
+        <v>0.003396968616918185</v>
       </c>
       <c r="P11">
-        <v>2.262906505247554</v>
+        <v>2.26423125468954</v>
       </c>
       <c r="Q11">
         <v>0.2062557903627206</v>
@@ -1109,18 +1109,18 @@
         <v>0.36315465493538</v>
       </c>
       <c r="S11">
-        <v>0.0007053640786390493</v>
+        <v>0.0007049510064866325</v>
       </c>
       <c r="T11">
-        <v>2.296267033740035</v>
+        <v>2.297564997300947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>1.121018406509577</v>
+        <v>-0.3666892951877943</v>
       </c>
       <c r="B12">
-        <v>0.001506192629674534</v>
+        <v>0.001503954364435659</v>
       </c>
       <c r="C12">
         <v>0.009956225754944125</v>
@@ -1159,10 +1159,10 @@
         <v>0.1504506050698995</v>
       </c>
       <c r="O12">
-        <v>1.316501864523344</v>
+        <v>1.316499874313986</v>
       </c>
       <c r="P12">
-        <v>0.2613398733591065</v>
+        <v>0.2613402682972835</v>
       </c>
       <c r="Q12">
         <v>0.180885832906079</v>
@@ -1171,10 +1171,10 @@
         <v>0.4128124328530886</v>
       </c>
       <c r="S12">
-        <v>0.238338541222346</v>
+        <v>0.2383381790433829</v>
       </c>
       <c r="T12">
-        <v>0.4768269205556759</v>
+        <v>0.4768270850367027</v>
       </c>
     </row>
   </sheetData>
